--- a/Practica_1/Modos/Patran/RBE2/Modos_FEM.xlsx
+++ b/Practica_1/Modos/Patran/RBE2/Modos_FEM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_1\Modos\Patran\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\EUE\Practica_1\Modos\Patran\RBE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0086545-7392-4ACB-AA0B-430BA78A892F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C73B207-96B9-4F45-BDE0-71E681AD1C5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6675" yWindow="3945" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
